--- a/账号公布/2024年/24.9.30/9.30.xlsx
+++ b/账号公布/2024年/24.9.30/9.30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Master Duel/栗子杯/LIZI-CUP/账号公布/2024年/24.9.30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0776FD43-6673-6C4C-B5E2-4662E0C828A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779EAEB4-6371-A84A-90E6-6FDFAA0A32F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="2160" windowWidth="28040" windowHeight="16100" xr2:uid="{0E0DFE3E-8D23-244A-AE17-832A6632BB35}"/>
+    <workbookView xWindow="760" yWindow="2280" windowWidth="28040" windowHeight="16100" xr2:uid="{0E0DFE3E-8D23-244A-AE17-832A6632BB35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
